--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_rj.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_rj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99662E28-4A84-4A65-A760-DA4B687A0112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EAEE3C-DEBD-1349-A46D-40A8E13F3EFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -590,16 +590,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -623,9 +617,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,21 +924,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:G109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -959,7 +952,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3300100</v>
       </c>
@@ -970,7 +963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3300159</v>
       </c>
@@ -981,7 +974,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3300209</v>
       </c>
@@ -992,7 +985,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3300225</v>
       </c>
@@ -1003,7 +996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3300233</v>
       </c>
@@ -1014,7 +1007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3300258</v>
       </c>
@@ -1025,7 +1018,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3300308</v>
       </c>
@@ -1036,7 +1029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3300407</v>
       </c>
@@ -1047,7 +1040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3300456</v>
       </c>
@@ -1058,7 +1051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3300506</v>
       </c>
@@ -1069,7 +1062,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3300605</v>
       </c>
@@ -1080,7 +1073,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3300704</v>
       </c>
@@ -1091,7 +1084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3300803</v>
       </c>
@@ -1102,7 +1095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3300902</v>
       </c>
@@ -1113,7 +1106,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3300936</v>
       </c>
@@ -1124,7 +1117,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3300951</v>
       </c>
@@ -1135,7 +1128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3301009</v>
       </c>
@@ -1146,7 +1139,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3301108</v>
       </c>
@@ -1157,7 +1150,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3301157</v>
       </c>
@@ -1168,7 +1161,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3301207</v>
       </c>
@@ -1179,7 +1172,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3301306</v>
       </c>
@@ -1190,7 +1183,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3301405</v>
       </c>
@@ -1201,7 +1194,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3301504</v>
       </c>
@@ -1212,7 +1205,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3301603</v>
       </c>
@@ -1223,7 +1216,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3301702</v>
       </c>
@@ -1234,7 +1227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3301801</v>
       </c>
@@ -1245,7 +1238,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3301850</v>
       </c>
@@ -1256,7 +1249,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3301876</v>
       </c>
@@ -1267,7 +1260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3301900</v>
       </c>
@@ -1278,7 +1271,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3302007</v>
       </c>
@@ -1289,7 +1282,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3302056</v>
       </c>
@@ -1300,7 +1293,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3302106</v>
       </c>
@@ -1311,7 +1304,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3302205</v>
       </c>
@@ -1322,7 +1315,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3302254</v>
       </c>
@@ -1333,7 +1326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3302270</v>
       </c>
@@ -1344,7 +1337,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3302304</v>
       </c>
@@ -1355,7 +1348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3302403</v>
       </c>
@@ -1366,7 +1359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3302452</v>
       </c>
@@ -1377,7 +1370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3302502</v>
       </c>
@@ -1388,7 +1381,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3302601</v>
       </c>
@@ -1399,7 +1392,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3302700</v>
       </c>
@@ -1410,7 +1403,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3302809</v>
       </c>
@@ -1421,7 +1414,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3302858</v>
       </c>
@@ -1432,7 +1425,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3302908</v>
       </c>
@@ -1443,7 +1436,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3303005</v>
       </c>
@@ -1454,7 +1447,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3303104</v>
       </c>
@@ -1465,7 +1458,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3303203</v>
       </c>
@@ -1476,7 +1469,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3303302</v>
       </c>
@@ -1487,7 +1480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3303401</v>
       </c>
@@ -1498,7 +1491,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3303500</v>
       </c>
@@ -1509,7 +1502,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3303609</v>
       </c>
@@ -1520,7 +1513,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3303708</v>
       </c>
@@ -1531,7 +1524,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3303807</v>
       </c>
@@ -1542,7 +1535,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3303856</v>
       </c>
@@ -1553,7 +1546,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3303906</v>
       </c>
@@ -1564,7 +1557,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3303955</v>
       </c>
@@ -1575,7 +1568,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3304003</v>
       </c>
@@ -1586,7 +1579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3304102</v>
       </c>
@@ -1597,7 +1590,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3304110</v>
       </c>
@@ -1608,7 +1601,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3304128</v>
       </c>
@@ -1619,7 +1612,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3304144</v>
       </c>
@@ -1630,7 +1623,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3304151</v>
       </c>
@@ -1641,7 +1634,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3304201</v>
       </c>
@@ -1652,7 +1645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3304300</v>
       </c>
@@ -1663,7 +1656,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3304409</v>
       </c>
@@ -1674,7 +1667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3304508</v>
       </c>
@@ -1685,7 +1678,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3304524</v>
       </c>
@@ -1696,7 +1689,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3304557</v>
       </c>
@@ -1707,7 +1700,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3304607</v>
       </c>
@@ -1718,7 +1711,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3304706</v>
       </c>
@@ -1729,7 +1722,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3304755</v>
       </c>
@@ -1740,7 +1733,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3304805</v>
       </c>
@@ -1751,7 +1744,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3304904</v>
       </c>
@@ -1762,7 +1755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3305000</v>
       </c>
@@ -1773,7 +1766,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3305109</v>
       </c>
@@ -1784,7 +1777,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3305133</v>
       </c>
@@ -1795,7 +1788,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3305158</v>
       </c>
@@ -1806,7 +1799,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3305208</v>
       </c>
@@ -1817,7 +1810,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3305307</v>
       </c>
@@ -1828,7 +1821,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3305406</v>
       </c>
@@ -1839,7 +1832,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3305505</v>
       </c>
@@ -1850,7 +1843,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3305554</v>
       </c>
@@ -1861,7 +1854,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3305604</v>
       </c>
@@ -1872,7 +1865,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3305703</v>
       </c>
@@ -1883,7 +1876,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3305752</v>
       </c>
@@ -1894,7 +1887,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3305802</v>
       </c>
@@ -1905,7 +1898,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3305901</v>
       </c>
@@ -1916,7 +1909,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3306008</v>
       </c>
@@ -1927,7 +1920,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3306107</v>
       </c>
@@ -1938,7 +1931,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3306156</v>
       </c>
@@ -1949,7 +1942,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3306206</v>
       </c>
@@ -1960,7 +1953,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3306305</v>
       </c>
@@ -1970,9 +1963,6 @@
       <c r="C93" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
